--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3145519.307915126</v>
+        <v>3143267.228203918</v>
       </c>
     </row>
     <row r="7">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>33.82128629323022</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>60.03388914270793</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,10 +820,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>10.93787135974289</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>83.65430578147883</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>16.61609021060049</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>303.7604914006573</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.00953837033202</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1063,10 +1063,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>99.84759100840618</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>297.998630822261</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.539868031607</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620237</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505416</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>109.0404882242264</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>136.5667167289878</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>104.7777418077836</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506637</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716562</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523328</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.0280580960833</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412178</v>
       </c>
     </row>
     <row r="35">
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532356</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>46.13809394730883</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>246.4755938422903</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883605</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1979.067756754391</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C2" t="n">
-        <v>1610.105239813979</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,7 +4340,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4364,16 +4364,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>2364.103749387412</v>
       </c>
       <c r="X2" t="n">
-        <v>2755.806928794324</v>
+        <v>1990.637991126332</v>
       </c>
       <c r="Y2" t="n">
-        <v>2365.667596818512</v>
+        <v>1600.49865915052</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4383,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L3" t="n">
         <v>765.151745215813</v>
@@ -4425,10 +4425,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>701.1808689801002</v>
+        <v>560.4166776763448</v>
       </c>
       <c r="C4" t="n">
-        <v>532.2446860521933</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="D4" t="n">
-        <v>382.1280466398576</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>223.7776581231568</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>77.56047134101462</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658018</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1621.028633888848</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>1621.028633888848</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W4" t="n">
-        <v>1331.611463851887</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X4" t="n">
-        <v>1103.62191295387</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y4" t="n">
-        <v>882.8293338103399</v>
+        <v>742.0651425065845</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>905.5765942093292</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>547.3108956025787</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4565,22 +4565,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2741.012457539437</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>530.2513404403938</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C7" t="n">
-        <v>361.3151575124869</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218343</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1323.155438708629</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335303</v>
+        <v>1068.470950502742</v>
       </c>
       <c r="W7" t="n">
-        <v>782.4929502983425</v>
+        <v>779.0537804657819</v>
       </c>
       <c r="X7" t="n">
-        <v>554.5033994003252</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.5033994003252</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694473</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>764.341133147311</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5528805490667</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678289</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4823,31 +4823,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758595</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397182</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.21291626627</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2149.810879820877</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795859</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5431,55 +5431,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656159</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703784</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N21" t="n">
         <v>1344.266747951537</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>766.1780053015058</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>618.2649117191127</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>471.3749642212023</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>304.1788649360822</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6005,34 +6005,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6130,19 +6130,19 @@
         <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6203,16 +6203,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,28 +6221,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
@@ -6257,7 +6257,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,19 +6361,19 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6443,31 +6443,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>268.7034100454488</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>101.5073107603287</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.2707707770319</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C34" t="n">
-        <v>634.334587849125</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.9192356072716</v>
+        <v>697.5276345711973</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6950,37 +6950,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>923.4916164683287</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>606.6423399580287</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>459.7523924601184</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="38">
@@ -7154,46 +7154,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,7 +7421,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273902</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429802</v>
+        <v>747.3584617859347</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>597.2418223735989</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>282.1326295060857</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>140.4207983482838</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2104.342122433613</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.8641191832229</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>634.927936255316</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1434.29471405501</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1206.305163156993</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>985.5125840134626</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711697</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>58.20633287440145</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>12.04875628922451</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>147.3599015160444</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556018</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.6341900408526</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109906</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5874149221290565</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.005313310876971</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903321</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>35.12774237125669</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26068,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>39.70888054695388</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>719672.0419590265</v>
+        <v>719672.0419590264</v>
       </c>
     </row>
     <row r="8">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>719672.0419590265</v>
+        <v>719672.0419590264</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312478</v>
+      </c>
+      <c r="C2" t="n">
+        <v>718411.5486312481</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312479</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312482</v>
-      </c>
       <c r="E2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.274728755</v>
+      </c>
+      <c r="J2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="M2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287551</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="C4" t="n">
         <v>93403.78684820631</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="E4" t="n">
+        <v>14216.75207685497</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14216.75207685499</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14216.75207685499</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14216.75207685499</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14216.75207685502</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14216.752076855</v>
+      </c>
+      <c r="K4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="F4" t="n">
+      <c r="L4" t="n">
+        <v>14216.75207685503</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14216.75207685505</v>
+      </c>
+      <c r="N4" t="n">
         <v>14216.75207685507</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14216.75207685507</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14216.75207685503</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14216.75207685502</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14216.75207685507</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14216.75207685508</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14216.75207685509</v>
       </c>
       <c r="O4" t="n">
         <v>14216.75207685505</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811670.9245059441</v>
+        <v>-811670.9245059444</v>
       </c>
       <c r="C6" t="n">
-        <v>517073.8212216481</v>
+        <v>517073.8212216485</v>
       </c>
       <c r="D6" t="n">
-        <v>517073.8212216486</v>
+        <v>517073.8212216482</v>
       </c>
       <c r="E6" t="n">
-        <v>265501.5310206383</v>
+        <v>265466.793095202</v>
       </c>
       <c r="F6" t="n">
-        <v>590913.9928279935</v>
+        <v>590879.2549025576</v>
       </c>
       <c r="G6" t="n">
-        <v>590913.9928279932</v>
+        <v>590879.2549025575</v>
       </c>
       <c r="H6" t="n">
-        <v>590913.9928279934</v>
+        <v>590879.2549025572</v>
       </c>
       <c r="I6" t="n">
-        <v>590913.9928279931</v>
+        <v>590879.2549025571</v>
       </c>
       <c r="J6" t="n">
-        <v>373382.7904307157</v>
+        <v>373348.0525052804</v>
       </c>
       <c r="K6" t="n">
-        <v>590913.9928279931</v>
+        <v>590879.2549025575</v>
       </c>
       <c r="L6" t="n">
-        <v>590913.9928279932</v>
+        <v>590879.2549025575</v>
       </c>
       <c r="M6" t="n">
-        <v>505858.9648924812</v>
+        <v>505824.2269670458</v>
       </c>
       <c r="N6" t="n">
-        <v>590913.9928279934</v>
+        <v>590879.2549025577</v>
       </c>
       <c r="O6" t="n">
-        <v>590913.9928279932</v>
+        <v>590879.2549025579</v>
       </c>
       <c r="P6" t="n">
-        <v>590913.9928279935</v>
+        <v>590879.2549025575</v>
       </c>
     </row>
   </sheetData>
@@ -26793,19 +26793,19 @@
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099649</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26960,19 +26960,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>320.8617553274527</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>289.2070795747051</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,10 +27540,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>85.4145490500952</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>202.5575324241341</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>365.3142798616613</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>82.47744725539627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>155.8224418116053</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27822,13 +27822,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>186.3642471972067</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>108.8774149194505</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468621</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.78568136090759</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.875832822406664e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-7.484429307644118e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31604,7 +31604,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31613,7 +31613,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>549.9198891312103</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770849</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32552,16 +32552,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338202</v>
+        <v>460.9249101897659</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
@@ -32792,7 +32792,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786841</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500036</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>622.4211036182644</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>314.5984986256099</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35261,7 +35261,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>407.3236446867659</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707382</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394599</v>
+        <v>322.3705304098917</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
@@ -36373,7 +36373,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.587454168382</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
@@ -36440,7 +36440,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,13 +36452,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342396</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.6592569279853</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>220.9409070342396</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>483.8667238383903</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>180.6240912112796</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
